--- a/biology/Zoologie/Bison_des_steppes/Bison_des_steppes.xlsx
+++ b/biology/Zoologie/Bison_des_steppes/Bison_des_steppes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bison priscus
 Le bison des steppes (Bison priscus) est une espèce fossile de grand bison à longues cornes ayant vécu en Eurasie au Pléistocène, de 900 000 ans avant le présent à 1100 av. J.-C.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs « momies » naturelles de cet animal ont été trouvées dans le pergélisol sibérien, dont une datant de 36 000 ans (cf « Blue Babe »), exposée à l'Alaska Institute Museum, et une datant de 28 000 ans, exposée au Smithsonian Institute Museum.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bison des steppes était plus haut et plus massif que les bisons actuels. Ses cornes étaient longues et dirigées vers le haut, ses épaules étaient puissantes. On pense que sa robe était plus semblable à celle du Bison d'Europe qu’à celle du Bison d'Amérique.
 Les plus gros mâles devaient atteindre environ 2 m au garrot pour plus d'une tonne. Leurs cornes atteignaient parfois plus de 1,50 m d'envergure.
@@ -575,9 +591,11 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Descendant de bisons plus primitifs (tel le Bison des bois du Pléistocène), le bison des steppes est apparu il y a environ 900 000 ans. Le vestige fossile le plus récent a été trouvé près de Saint-Pétersbourg, en Russie, et est daté de seulement 1100 av. J.-C.[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descendant de bisons plus primitifs (tel le Bison des bois du Pléistocène), le bison des steppes est apparu il y a environ 900 000 ans. Le vestige fossile le plus récent a été trouvé près de Saint-Pétersbourg, en Russie, et est daté de seulement 1100 av. J.-C..
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe plusieurs sous-espèces :
 Bison priscus mediator : originaire de France et d’Europe. Plusieurs de ces fossiles ont été exhumés à Jaurens et dans d’autres sites, également dans des grottes occupées par des hommes (Tautavel…). Serait-ce un synonyme de Bison priscus priscus ?
@@ -639,7 +659,9 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bison des steppes vivait dans des steppes et des prairies riches en graminées où poussaient quelques arbres. Il devait certainement constituer de grands troupeaux lorsque les prairies où il vivait étaient abondantes et devait être chassé par de nombreux prédateurs.
 Il croisait le mammouth laineux, le rhinocéros laineux, des chevaux et des cervidés, mais il vivait également aux côtés de prédateurs comme le lion, le loup ou l’homme.
@@ -671,7 +693,9 @@
           <t>Le bison et l’Homme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bison des steppes représentait une ressource importante dans la vie des hommes préhistoriques : il leur servait à se nourrir, à s’habiller et même parfois à s’abriter.
 Au Paléolithique moyen, l'Homme de Néandertal a chassé le bison, notamment en utilisant des avens comme pièges naturels, comme à Coudoulous, dans le Lot.
